--- a/output/CARINBBPatient.xlsx
+++ b/output/CARINBBPatient.xlsx
@@ -184,7 +184,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -203,7 +203,7 @@
     <t>Patient.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -219,7 +219,7 @@
     <t>Patient.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -239,7 +239,7 @@
     <t>Patient.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -271,7 +271,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -301,7 +301,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -323,7 +323,7 @@
     <t>Patient.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -346,21 +346,21 @@
     <t>race</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-race]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-race}
 </t>
   </si>
   <si>
     <t>ethnicity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity}
 </t>
   </si>
   <si>
     <t>birthsex</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-birthsex]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-birthsex}
 </t>
   </si>
   <si>
@@ -386,7 +386,7 @@
     <t>Patient.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -411,7 +411,7 @@
     <t>Patient.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -475,7 +475,7 @@
     <t>Patient.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -516,7 +516,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri"/&gt;</t>
+    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -540,7 +540,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](https://build.fhir.org/ig/HL7/US-Core/extension-rendered-value.html).</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
+    <t>123456</t>
   </si>
   <si>
     <t>Identifier.value</t>
@@ -555,7 +555,7 @@
     <t>Patient.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -577,7 +577,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -602,7 +602,7 @@
     <t>Patient.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -619,7 +619,7 @@
     <t>Need to be able to mark a patient record as not to be used because it was created in error.</t>
   </si>
   <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
+    <t>true</t>
   </si>
   <si>
     <t>statusCode</t>
@@ -631,7 +631,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {[]} {[]}
+    <t xml:space="preserve">HumanName
 </t>
   </si>
   <si>
@@ -826,7 +826,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {[]} {[]}
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
@@ -881,7 +881,7 @@
     <t>Patient.birthDate</t>
   </si>
   <si>
-    <t xml:space="preserve">date {[]} {[]}
+    <t xml:space="preserve">date
 </t>
   </si>
   <si>
@@ -912,8 +912,8 @@
     <t>Patient.deceased[x]</t>
   </si>
   <si>
-    <t>boolean {[]} {[]}
-dateTime {[]} {[]}</t>
+    <t>boolean
+dateTime</t>
   </si>
   <si>
     <t>Indicates if the individual is deceased or not</t>
@@ -938,7 +938,7 @@
     <t>Patient.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {[]} {[]}
+    <t xml:space="preserve">Address
 </t>
   </si>
   <si>
@@ -993,8 +993,8 @@
     <t>Patient.multipleBirth[x]</t>
   </si>
   <si>
-    <t>boolean {[]} {[]}
-integer {[]} {[]}</t>
+    <t>boolean
+integer</t>
   </si>
   <si>
     <t>Whether patient is part of a multiple birth</t>
@@ -1020,7 +1020,7 @@
     <t>Patient.photo</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment {[]} {[]}
+    <t xml:space="preserve">Attachment
 </t>
   </si>
   <si>
@@ -1042,7 +1042,7 @@
     <t>Patient.contact</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1396,7 +1396,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner]]}
+    <t xml:space="preserve">Reference(Organization|Practitioner)
 </t>
   </si>
   <si>
@@ -1466,7 +1466,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+    <t xml:space="preserve">Reference(Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1547,67 +1547,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1643,7 +1643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP73"/>
+  <dimension ref="A1:AO73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1666,7 +1666,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="53.0234375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
